--- a/other/WorkBook.xlsx
+++ b/other/WorkBook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Metod 1</t>
   </si>
@@ -51,9 +51,6 @@
     <t>g</t>
   </si>
   <si>
-    <t>5 times</t>
-  </si>
-  <si>
     <t>omvänt</t>
   </si>
   <si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>Storlek</t>
+  </si>
+  <si>
+    <t>Data typ</t>
+  </si>
+  <si>
+    <t>5 gånger</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,13 +98,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,11 +258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="52671232"/>
-        <c:axId val="52669440"/>
+        <c:axId val="50751744"/>
+        <c:axId val="50757632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52671232"/>
+        <c:axId val="50751744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,12 +272,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52669440"/>
+        <c:crossAx val="50757632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52669440"/>
+        <c:axId val="50757632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -269,7 +288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52671232"/>
+        <c:crossAx val="50751744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -306,7 +325,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -404,11 +422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150020480"/>
-        <c:axId val="150022016"/>
+        <c:axId val="50833280"/>
+        <c:axId val="50834816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150020480"/>
+        <c:axId val="50833280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,12 +436,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150022016"/>
+        <c:crossAx val="50834816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150022016"/>
+        <c:axId val="50834816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,14 +452,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150020480"/>
+        <c:crossAx val="50833280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -471,7 +488,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -505,7 +521,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -579,11 +594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161913856"/>
-        <c:axId val="161923840"/>
+        <c:axId val="51578368"/>
+        <c:axId val="51580288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161913856"/>
+        <c:axId val="51578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,12 +608,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161923840"/>
+        <c:crossAx val="51580288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161923840"/>
+        <c:axId val="51580288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,14 +624,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161913856"/>
+        <c:crossAx val="51578368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -646,7 +660,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -679,7 +692,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -753,11 +765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222601600"/>
-        <c:axId val="222603136"/>
+        <c:axId val="51720192"/>
+        <c:axId val="51723648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222601600"/>
+        <c:axId val="51720192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,12 +779,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222603136"/>
+        <c:crossAx val="51723648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222603136"/>
+        <c:axId val="51723648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,14 +795,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222601600"/>
+        <c:crossAx val="51720192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -811,13 +822,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -840,15 +851,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -872,15 +883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -904,15 +915,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1223,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,373 +1245,393 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.95479999999999998</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.1754</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2.1139999999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1.6748000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>8.3013999999999992</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>18.375599999999999</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>76.697999999999993</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.2214</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.1799999999999899E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.6199999999999899E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.15820000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.1443999999999901</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.1122000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11.9468</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25.989599999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>110.8026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C8" s="1">
+        <v>3645</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>22990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>3645</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C3">
+      <c r="E19" s="1">
+        <v>1.1443999999999901</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>3645</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.1754</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.14319999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>7664</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.1139999999999999</v>
+      </c>
+      <c r="D21" s="1">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="E3">
+      <c r="E21" s="1">
+        <v>3.1122000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>10821</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.6748000000000001</v>
+      </c>
+      <c r="D22" s="1">
         <v>1.2214</v>
       </c>
-      <c r="F3">
+      <c r="E22" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>15327</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.3013999999999992</v>
+      </c>
+      <c r="D23" s="1">
         <v>2.1799999999999899E-2</v>
       </c>
-      <c r="G3">
+      <c r="E23" s="1">
+        <v>11.9468</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>22990</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18.375599999999999</v>
+      </c>
+      <c r="D24" s="1">
         <v>3.6199999999999899E-2</v>
       </c>
-      <c r="H3">
+      <c r="E24" s="1">
+        <v>25.989599999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>45439</v>
+      </c>
+      <c r="C25" s="1">
+        <v>76.697999999999993</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.15820000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1.1443999999999901</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3.1122000000000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F4">
-        <v>11.9468</v>
-      </c>
-      <c r="G4">
-        <v>25.989599999999999</v>
-      </c>
-      <c r="H4">
+      <c r="E25" s="1">
         <v>110.8026</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="C5">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="D5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G5">
-        <v>4.02E-2</v>
-      </c>
-      <c r="H5">
+      <c r="F25" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>3645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C9">
-        <v>3645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>7664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>10821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>15327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>22990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>3645</v>
-      </c>
-      <c r="C19">
-        <v>0.95479999999999998</v>
-      </c>
-      <c r="D19">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E19">
-        <v>1.1443999999999901</v>
-      </c>
-      <c r="F19">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>3645</v>
-      </c>
-      <c r="C20">
-        <v>0.1754</v>
-      </c>
-      <c r="D20">
-        <v>0.14319999999999999</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>7664</v>
-      </c>
-      <c r="C21">
-        <v>2.1139999999999999</v>
-      </c>
-      <c r="D21">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="E21">
-        <v>3.1122000000000001</v>
-      </c>
-      <c r="F21">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>10821</v>
-      </c>
-      <c r="C22">
-        <v>1.6748000000000001</v>
-      </c>
-      <c r="D22">
-        <v>1.2214</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F22">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>15327</v>
-      </c>
-      <c r="C23">
-        <v>8.3013999999999992</v>
-      </c>
-      <c r="D23">
-        <v>2.1799999999999899E-2</v>
-      </c>
-      <c r="E23">
-        <v>11.9468</v>
-      </c>
-      <c r="F23">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>22990</v>
-      </c>
-      <c r="C24">
-        <v>18.375599999999999</v>
-      </c>
-      <c r="D24">
-        <v>3.6199999999999899E-2</v>
-      </c>
-      <c r="E24">
-        <v>25.989599999999999</v>
-      </c>
-      <c r="F24">
-        <v>4.02E-2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>45439</v>
-      </c>
-      <c r="C25">
-        <v>76.697999999999993</v>
-      </c>
-      <c r="D25">
-        <v>0.15820000000000001</v>
-      </c>
-      <c r="E25">
-        <v>110.8026</v>
-      </c>
-      <c r="F25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/WorkBook.xlsx
+++ b/other/WorkBook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Metod 1</t>
   </si>
@@ -178,16 +178,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$19:$B$25</c:f>
@@ -258,11 +248,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50751744"/>
-        <c:axId val="50757632"/>
+        <c:axId val="50752896"/>
+        <c:axId val="50759168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50751744"/>
+        <c:axId val="50752896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,12 +262,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50757632"/>
+        <c:crossAx val="50759168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50757632"/>
+        <c:axId val="50759168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -288,7 +278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50751744"/>
+        <c:crossAx val="50752896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -325,6 +315,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -422,11 +413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50833280"/>
-        <c:axId val="50834816"/>
+        <c:axId val="50834432"/>
+        <c:axId val="51127040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50833280"/>
+        <c:axId val="50834432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,12 +427,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50834816"/>
+        <c:crossAx val="51127040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50834816"/>
+        <c:axId val="51127040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,13 +443,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50833280"/>
+        <c:crossAx val="50834432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -488,6 +480,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -515,15 +508,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$19:$B$25</c:f>
@@ -594,11 +578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51578368"/>
-        <c:axId val="51580288"/>
+        <c:axId val="51578752"/>
+        <c:axId val="51585408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51578368"/>
+        <c:axId val="51578752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,12 +592,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51580288"/>
+        <c:crossAx val="51585408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51580288"/>
+        <c:axId val="51585408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,13 +608,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51578368"/>
+        <c:crossAx val="51578752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -660,6 +645,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -687,14 +673,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$19:$B$25</c:f>
@@ -765,11 +743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51720192"/>
-        <c:axId val="51723648"/>
+        <c:axId val="51822976"/>
+        <c:axId val="51830784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51720192"/>
+        <c:axId val="51822976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,12 +757,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51723648"/>
+        <c:crossAx val="51830784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51723648"/>
+        <c:axId val="51830784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,13 +773,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51720192"/>
+        <c:crossAx val="51822976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1236,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1441,7 @@
         <v>45439</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1460,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" s="1">
         <v>3645</v>
       </c>
@@ -1502,7 +1484,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B20" s="1">
         <v>3645</v>
       </c>
@@ -1523,7 +1508,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B21" s="1">
         <v>7664</v>
       </c>
@@ -1544,7 +1532,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B22" s="1">
         <v>10821</v>
       </c>
@@ -1565,7 +1556,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B23" s="1">
         <v>15327</v>
       </c>
@@ -1586,7 +1580,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B24" s="1">
         <v>22990</v>
       </c>
@@ -1607,7 +1604,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B25" s="1">
         <v>45439</v>
       </c>

--- a/other/WorkBook.xlsx
+++ b/other/WorkBook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Metod 1</t>
   </si>
@@ -67,15 +67,25 @@
   </si>
   <si>
     <t>5 gånger</t>
+  </si>
+  <si>
+    <t>Bilaga 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,10 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,7 +177,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$18</c:f>
+              <c:f>Sheet1!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -180,7 +193,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$25</c:f>
+              <c:f>Sheet1!$B$24:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -210,7 +223,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$C$25</c:f>
+              <c:f>Sheet1!$C$24:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -248,11 +261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50752896"/>
-        <c:axId val="50759168"/>
+        <c:axId val="140125312"/>
+        <c:axId val="140126848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50752896"/>
+        <c:axId val="140125312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,12 +275,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50759168"/>
+        <c:crossAx val="140126848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50759168"/>
+        <c:axId val="140126848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -278,7 +291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50752896"/>
+        <c:crossAx val="140125312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -329,7 +342,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$18</c:f>
+              <c:f>Sheet1!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -345,7 +358,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$25</c:f>
+              <c:f>Sheet1!$B$24:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -375,7 +388,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$D$25</c:f>
+              <c:f>Sheet1!$D$24:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -413,11 +426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50834432"/>
-        <c:axId val="51127040"/>
+        <c:axId val="140237440"/>
+        <c:axId val="156389760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50834432"/>
+        <c:axId val="140237440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,12 +440,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51127040"/>
+        <c:crossAx val="156389760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51127040"/>
+        <c:axId val="156389760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50834432"/>
+        <c:crossAx val="140237440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -494,7 +507,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$18</c:f>
+              <c:f>Sheet1!$E$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +523,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$25</c:f>
+              <c:f>Sheet1!$B$24:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -540,7 +553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$19:$E$25</c:f>
+              <c:f>Sheet1!$E$24:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -578,11 +591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51578752"/>
-        <c:axId val="51585408"/>
+        <c:axId val="156426624"/>
+        <c:axId val="156428160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51578752"/>
+        <c:axId val="156426624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,12 +605,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51585408"/>
+        <c:crossAx val="156428160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51585408"/>
+        <c:axId val="156428160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51578752"/>
+        <c:crossAx val="156426624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -659,7 +672,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$18</c:f>
+              <c:f>Sheet1!$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -675,7 +688,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$25</c:f>
+              <c:f>Sheet1!$B$24:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -705,7 +718,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$19:$F$25</c:f>
+              <c:f>Sheet1!$F$24:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -743,11 +756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51822976"/>
-        <c:axId val="51830784"/>
+        <c:axId val="119216000"/>
+        <c:axId val="119217536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51822976"/>
+        <c:axId val="119216000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,12 +770,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51830784"/>
+        <c:crossAx val="119217536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51830784"/>
+        <c:axId val="119217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51822976"/>
+        <c:crossAx val="119216000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -800,15 +813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -830,15 +843,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -862,15 +875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -894,15 +907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1213,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,411 +1237,427 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B7" s="1">
         <v>0.95479999999999998</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C7" s="1">
         <v>0.1754</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D7" s="1">
         <v>2.1139999999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E7" s="1">
         <v>1.6748000000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F7" s="1">
         <v>8.3013999999999992</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G7" s="1">
         <v>18.375599999999999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H7" s="1">
         <v>76.697999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B8" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C8" s="1">
         <v>0.14319999999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D8" s="1">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E8" s="1">
         <v>1.2214</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F8" s="1">
         <v>2.1799999999999899E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G8" s="1">
         <v>3.6199999999999899E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H8" s="1">
         <v>0.15820000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B9" s="1">
         <v>1.1443999999999901</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D9" s="1">
         <v>3.1122000000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E9" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F9" s="1">
         <v>11.9468</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G9" s="1">
         <v>25.989599999999999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H9" s="1">
         <v>110.8026</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B10" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C10" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D10" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E10" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F10" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G10" s="1">
         <v>4.02E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H10" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C13" s="1">
         <v>3645</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C14" s="1">
         <v>3645</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C15" s="1">
         <v>7664</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C16" s="1">
         <v>10821</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C17" s="1">
         <v>15327</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C18" s="1">
         <v>22990</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3645</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>0.95479999999999998</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.1443999999999901</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3645</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.1754</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.14319999999999999</v>
-      </c>
-      <c r="E20" s="1">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1">
-        <v>7664</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.1139999999999999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3.1122000000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1">
-        <v>10821</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.6748000000000001</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.2214</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1">
-        <v>15327</v>
-      </c>
-      <c r="C23" s="1">
-        <v>8.3013999999999992</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.1799999999999899E-2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>11.9468</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.5999999999999999E-2</v>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>22990</v>
+        <v>3645</v>
       </c>
       <c r="C24" s="1">
-        <v>18.375599999999999</v>
+        <v>0.95479999999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>3.6199999999999899E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>25.989599999999999</v>
+        <v>1.1443999999999901</v>
       </c>
       <c r="F24" s="1">
-        <v>4.02E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>45439</v>
+        <v>3645</v>
       </c>
       <c r="C25" s="1">
-        <v>76.697999999999993</v>
+        <v>0.1754</v>
       </c>
       <c r="D25" s="1">
-        <v>0.15820000000000001</v>
+        <v>0.14319999999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>110.8026</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7664</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.1139999999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.1122000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10821</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.6748000000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.2214</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15327</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8.3013999999999992</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.1799999999999899E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>11.9468</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>22990</v>
+      </c>
+      <c r="C29" s="1">
+        <v>18.375599999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.6199999999999899E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>25.989599999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45439</v>
+      </c>
+      <c r="C30" s="1">
+        <v>76.697999999999993</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>110.8026</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
